--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf15-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf15-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Fgf15</t>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.03652333333333333</v>
+        <v>0.07580100000000001</v>
       </c>
       <c r="H2">
-        <v>0.10957</v>
+        <v>0.227403</v>
       </c>
       <c r="I2">
-        <v>0.1147167677867527</v>
+        <v>0.2364650501155793</v>
       </c>
       <c r="J2">
-        <v>0.1147167677867526</v>
+        <v>0.2364650501155794</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.619953333333334</v>
+        <v>5.751166666666666</v>
       </c>
       <c r="N2">
-        <v>7.85986</v>
+        <v>17.2535</v>
       </c>
       <c r="O2">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
       <c r="P2">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
       <c r="Q2">
-        <v>0.09568942891111111</v>
+        <v>0.4359441845</v>
       </c>
       <c r="R2">
-        <v>0.8612048602000001</v>
+        <v>3.9234976605</v>
       </c>
       <c r="S2">
-        <v>0.06997756720407272</v>
+        <v>0.17510763366362</v>
       </c>
       <c r="T2">
-        <v>0.06997756720407272</v>
+        <v>0.17510763366362</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.03652333333333333</v>
+        <v>0.07580100000000001</v>
       </c>
       <c r="H3">
-        <v>0.10957</v>
+        <v>0.227403</v>
       </c>
       <c r="I3">
-        <v>0.1147167677867527</v>
+        <v>0.2364650501155793</v>
       </c>
       <c r="J3">
-        <v>0.1147167677867526</v>
+        <v>0.2364650501155794</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +620,22 @@
         <v>1.709545</v>
       </c>
       <c r="O3">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367415998</v>
       </c>
       <c r="P3">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367416</v>
       </c>
       <c r="Q3">
-        <v>0.02081276062777777</v>
+        <v>0.043195073515</v>
       </c>
       <c r="R3">
-        <v>0.18731484565</v>
+        <v>0.388755661635</v>
       </c>
       <c r="S3">
-        <v>0.01522034745223026</v>
+        <v>0.01735035671553443</v>
       </c>
       <c r="T3">
-        <v>0.01522034745223025</v>
+        <v>0.01735035671553443</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.03652333333333333</v>
+        <v>0.07580100000000001</v>
       </c>
       <c r="H4">
-        <v>0.10957</v>
+        <v>0.227403</v>
       </c>
       <c r="I4">
-        <v>0.1147167677867527</v>
+        <v>0.2364650501155793</v>
       </c>
       <c r="J4">
-        <v>0.1147167677867526</v>
+        <v>0.2364650501155794</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.105183</v>
+        <v>1.445350666666667</v>
       </c>
       <c r="N4">
-        <v>3.315549</v>
+        <v>4.336052</v>
       </c>
       <c r="O4">
-        <v>0.2573194285365706</v>
+        <v>0.1861038648836906</v>
       </c>
       <c r="P4">
-        <v>0.2573194285365706</v>
+        <v>0.1861038648836906</v>
       </c>
       <c r="Q4">
-        <v>0.04036496710333333</v>
+        <v>0.109559025884</v>
       </c>
       <c r="R4">
-        <v>0.36328470393</v>
+        <v>0.9860312329560001</v>
       </c>
       <c r="S4">
-        <v>0.02951885313044967</v>
+        <v>0.0440070597364249</v>
       </c>
       <c r="T4">
-        <v>0.02951885313044967</v>
+        <v>0.04400705973642491</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +705,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -729,40 +726,40 @@
         <v>0.399987</v>
       </c>
       <c r="I5">
-        <v>0.4187753563632367</v>
+        <v>0.4159265533022002</v>
       </c>
       <c r="J5">
-        <v>0.4187753563632365</v>
+        <v>0.4159265533022002</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>2.619953333333334</v>
+        <v>5.751166666666666</v>
       </c>
       <c r="N5">
-        <v>7.85986</v>
+        <v>17.2535</v>
       </c>
       <c r="O5">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
       <c r="P5">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
       <c r="Q5">
-        <v>0.34931575798</v>
+        <v>0.7667973004999999</v>
       </c>
       <c r="R5">
-        <v>3.14384182182</v>
+        <v>6.901175704499999</v>
       </c>
       <c r="S5">
-        <v>0.2554542043739659</v>
+        <v>0.308002871845184</v>
       </c>
       <c r="T5">
-        <v>0.2554542043739658</v>
+        <v>0.308002871845184</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +767,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -791,10 +788,10 @@
         <v>0.399987</v>
       </c>
       <c r="I6">
-        <v>0.4187753563632367</v>
+        <v>0.4159265533022002</v>
       </c>
       <c r="J6">
-        <v>0.4187753563632365</v>
+        <v>0.4159265533022002</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,10 +806,10 @@
         <v>1.709545</v>
       </c>
       <c r="O6">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367415998</v>
       </c>
       <c r="P6">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367416</v>
       </c>
       <c r="Q6">
         <v>0.075977308435</v>
@@ -821,10 +818,10 @@
         <v>0.683795775915</v>
       </c>
       <c r="S6">
-        <v>0.05556211660468398</v>
+        <v>0.03051814237972441</v>
       </c>
       <c r="T6">
-        <v>0.05556211660468396</v>
+        <v>0.03051814237972441</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +829,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -853,10 +850,10 @@
         <v>0.399987</v>
       </c>
       <c r="I7">
-        <v>0.4187753563632367</v>
+        <v>0.4159265533022002</v>
       </c>
       <c r="J7">
-        <v>0.4187753563632365</v>
+        <v>0.4159265533022002</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.105183</v>
+        <v>1.445350666666667</v>
       </c>
       <c r="N7">
-        <v>3.315549</v>
+        <v>4.336052</v>
       </c>
       <c r="O7">
-        <v>0.2573194285365706</v>
+        <v>0.1861038648836906</v>
       </c>
       <c r="P7">
-        <v>0.2573194285365706</v>
+        <v>0.1861038648836906</v>
       </c>
       <c r="Q7">
-        <v>0.147352944207</v>
+        <v>0.192707159036</v>
       </c>
       <c r="R7">
-        <v>1.326176497863</v>
+        <v>1.734364431324</v>
       </c>
       <c r="S7">
-        <v>0.1077590353845868</v>
+        <v>0.07740553907729179</v>
       </c>
       <c r="T7">
-        <v>0.1077590353845867</v>
+        <v>0.07740553907729179</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +891,61 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.110769</v>
+        <v>0.111429</v>
       </c>
       <c r="H8">
-        <v>0.332307</v>
+        <v>0.334287</v>
       </c>
       <c r="I8">
-        <v>0.3479162631460475</v>
+        <v>0.3476083965822204</v>
       </c>
       <c r="J8">
-        <v>0.3479162631460474</v>
+        <v>0.3476083965822204</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>2.619953333333334</v>
+        <v>5.751166666666666</v>
       </c>
       <c r="N8">
-        <v>7.85986</v>
+        <v>17.2535</v>
       </c>
       <c r="O8">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
       <c r="P8">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
       <c r="Q8">
-        <v>0.2902096107800001</v>
+        <v>0.6408467505</v>
       </c>
       <c r="R8">
-        <v>2.61188649702</v>
+        <v>5.767620754499999</v>
       </c>
       <c r="S8">
-        <v>0.2122299482055654</v>
+        <v>0.2574117559333454</v>
       </c>
       <c r="T8">
-        <v>0.2122299482055653</v>
+        <v>0.2574117559333454</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,31 +953,31 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.110769</v>
+        <v>0.111429</v>
       </c>
       <c r="H9">
-        <v>0.332307</v>
+        <v>0.334287</v>
       </c>
       <c r="I9">
-        <v>0.3479162631460475</v>
+        <v>0.3476083965822204</v>
       </c>
       <c r="J9">
-        <v>0.3479162631460474</v>
+        <v>0.3476083965822204</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,22 +992,22 @@
         <v>1.709545</v>
       </c>
       <c r="O9">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367415998</v>
       </c>
       <c r="P9">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367416</v>
       </c>
       <c r="Q9">
-        <v>0.063121530035</v>
+        <v>0.06349762993499999</v>
       </c>
       <c r="R9">
-        <v>0.568093770315</v>
+        <v>0.5714786694149999</v>
       </c>
       <c r="S9">
-        <v>0.046160700929162</v>
+        <v>0.02550537457890114</v>
       </c>
       <c r="T9">
-        <v>0.04616070092916199</v>
+        <v>0.02550537457890115</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,31 +1015,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.110769</v>
+        <v>0.111429</v>
       </c>
       <c r="H10">
-        <v>0.332307</v>
+        <v>0.334287</v>
       </c>
       <c r="I10">
-        <v>0.3479162631460475</v>
+        <v>0.3476083965822204</v>
       </c>
       <c r="J10">
-        <v>0.3479162631460474</v>
+        <v>0.3476083965822204</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,214 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.105183</v>
+        <v>1.445350666666667</v>
       </c>
       <c r="N10">
-        <v>3.315549</v>
+        <v>4.336052</v>
       </c>
       <c r="O10">
-        <v>0.2573194285365706</v>
+        <v>0.1861038648836906</v>
       </c>
       <c r="P10">
-        <v>0.2573194285365706</v>
+        <v>0.1861038648836906</v>
       </c>
       <c r="Q10">
-        <v>0.122420015727</v>
+        <v>0.161053979436</v>
       </c>
       <c r="R10">
-        <v>1.101780141543</v>
+        <v>1.449485814924</v>
       </c>
       <c r="S10">
-        <v>0.08952561401132006</v>
+        <v>0.06469126606997387</v>
       </c>
       <c r="T10">
-        <v>0.08952561401132005</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G11">
-        <v>0.03775700000000001</v>
-      </c>
-      <c r="H11">
-        <v>0.113271</v>
-      </c>
-      <c r="I11">
-        <v>0.1185916127039633</v>
-      </c>
-      <c r="J11">
-        <v>0.1185916127039633</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M11">
-        <v>2.619953333333334</v>
-      </c>
-      <c r="N11">
-        <v>7.85986</v>
-      </c>
-      <c r="O11">
-        <v>0.6100029538328192</v>
-      </c>
-      <c r="P11">
-        <v>0.6100029538328192</v>
-      </c>
-      <c r="Q11">
-        <v>0.09892157800666669</v>
-      </c>
-      <c r="R11">
-        <v>0.8902942020600001</v>
-      </c>
-      <c r="S11">
-        <v>0.07234123404921532</v>
-      </c>
-      <c r="T11">
-        <v>0.07234123404921532</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G12">
-        <v>0.03775700000000001</v>
-      </c>
-      <c r="H12">
-        <v>0.113271</v>
-      </c>
-      <c r="I12">
-        <v>0.1185916127039633</v>
-      </c>
-      <c r="J12">
-        <v>0.1185916127039633</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0.5698483333333333</v>
-      </c>
-      <c r="N12">
-        <v>1.709545</v>
-      </c>
-      <c r="O12">
-        <v>0.1326776176306101</v>
-      </c>
-      <c r="P12">
-        <v>0.1326776176306101</v>
-      </c>
-      <c r="Q12">
-        <v>0.02151576352166667</v>
-      </c>
-      <c r="R12">
-        <v>0.193641871695</v>
-      </c>
-      <c r="S12">
-        <v>0.01573445264453385</v>
-      </c>
-      <c r="T12">
-        <v>0.01573445264453384</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G13">
-        <v>0.03775700000000001</v>
-      </c>
-      <c r="H13">
-        <v>0.113271</v>
-      </c>
-      <c r="I13">
-        <v>0.1185916127039633</v>
-      </c>
-      <c r="J13">
-        <v>0.1185916127039633</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.105183</v>
-      </c>
-      <c r="N13">
-        <v>3.315549</v>
-      </c>
-      <c r="O13">
-        <v>0.2573194285365706</v>
-      </c>
-      <c r="P13">
-        <v>0.2573194285365706</v>
-      </c>
-      <c r="Q13">
-        <v>0.04172839453100001</v>
-      </c>
-      <c r="R13">
-        <v>0.375555550779</v>
-      </c>
-      <c r="S13">
-        <v>0.03051592601021415</v>
-      </c>
-      <c r="T13">
-        <v>0.03051592601021415</v>
+        <v>0.06469126606997389</v>
       </c>
     </row>
   </sheetData>
